--- a/src/test/resources/Test Attachments/10 CI's - Correct Names/FILE.xlsx
+++ b/src/test/resources/Test Attachments/10 CI's - Correct Names/FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_smi\OneDrive\Documents\TemplatesForBulkCITests\10 CI's - Correct Names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation-new\src\test\resources\Test Attachments\10 CI's - Correct Names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD3A4934EECE07DE3A30AC543493327F250C57B5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B9F4F03C-814B-45CE-B0E9-5CE91FED6176}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B104AF3-417A-4F01-9E93-84748C814E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="7335" windowWidth="21600" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIList" sheetId="1" r:id="rId1"/>
@@ -28,24 +28,6 @@
     <t>CI Name</t>
   </si>
   <si>
-    <t>SE_AP_alvesta-radmannen-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap10</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap2</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap3</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap4</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap5</t>
-  </si>
-  <si>
     <t>SE_AP_alvesta-radmannen-ap6</t>
   </si>
   <si>
@@ -56,6 +38,24 @@
   </si>
   <si>
     <t>SE_AP_alvesta-radmannen-ap9</t>
+  </si>
+  <si>
+    <t>SE_BTS_703_123297</t>
+  </si>
+  <si>
+    <t>SE_EAU_xlm56147</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_222112</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_222737</t>
+  </si>
+  <si>
+    <t>SE_REPEATER_R002017</t>
+  </si>
+  <si>
+    <t>SE_REPEATER_R002980</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,67 +411,67 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
